--- a/All_data/Expression_analysis/osa-miR156_correlation_graph.xlsx
+++ b/All_data/Expression_analysis/osa-miR156_correlation_graph.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thomas/GitHub/File-transfer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thomas/GitHub/File-transfer/All_data/Expression_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="460" windowWidth="28240" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1340" yWindow="1960" windowWidth="28180" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Seedling" sheetId="15" r:id="rId1"/>
@@ -19,10 +19,13 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId5"/>
-    <pivotCache cacheId="28" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -148,7 +151,6 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,7 +190,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -203,7 +205,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -270,7 +272,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1261,11 +1263,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2100475888"/>
-        <c:axId val="-2095655248"/>
+        <c:axId val="1024013168"/>
+        <c:axId val="1025056160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2100475888"/>
+        <c:axId val="1024013168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,10 +1307,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095655248"/>
+        <c:crossAx val="1025056160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1316,7 +1318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095655248"/>
+        <c:axId val="1025056160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,10 +1366,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100475888"/>
+        <c:crossAx val="1024013168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1407,7 +1409,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1437,7 +1439,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1451,7 +1453,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1487,8 +1489,26 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> Young Flower miRNA Correlation</a:t>
+              <a:t> miRNA:target Expression Correlation in Young Flowers</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t>水稻幼年花器官中</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>miRNA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t>和靶基因表达量相关性</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1518,7 +1538,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2509,11 +2529,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2115568080"/>
-        <c:axId val="-2099638128"/>
+        <c:axId val="986402512"/>
+        <c:axId val="986404720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2115568080"/>
+        <c:axId val="986402512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,10 +2573,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099638128"/>
+        <c:crossAx val="986404720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2564,7 +2584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099638128"/>
+        <c:axId val="986404720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2612,10 +2632,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115568080"/>
+        <c:crossAx val="986402512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2655,7 +2675,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2685,7 +2705,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3787,15 +3807,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3822,15 +3842,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4849,7 +4869,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="miRNA" colHeaderCaption="gene">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="miRNA" colHeaderCaption="gene">
   <location ref="A3:J16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5035,7 +5055,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -7262,7 +7282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
